--- a/RPL/Hitungan Biaya.xlsx
+++ b/RPL/Hitungan Biaya.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skripsi\RPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C555124-644A-43D9-995B-325FE77B6E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE3FA9-9B0E-4885-B0C0-D446D9589BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="0" windowWidth="11715" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -58,60 +57,94 @@
     <t>Biaya Kepanitiaan</t>
   </si>
   <si>
-    <t>Biaya Operasional</t>
-  </si>
-  <si>
-    <t>Biro Kepegawaian</t>
-  </si>
-  <si>
-    <t>Panitia</t>
-  </si>
-  <si>
-    <t>Wakil Rektor 2</t>
-  </si>
-  <si>
-    <t>KABAG Hukum Kepegawaian</t>
-  </si>
-  <si>
-    <t>Rektor</t>
-  </si>
-  <si>
-    <t>Biaya / Bulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waktu </t>
-  </si>
-  <si>
-    <t>Jumlah Pegawai</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Biaya Nelpon 1 Menit / Pegawai</t>
-  </si>
-  <si>
-    <t>Jumlah Anggota / Lama Nelpon Pegawai = Jam per hari</t>
-  </si>
-  <si>
-    <t>Lama Nelpon * Jumlah Pegawai =  Jam per hari</t>
-  </si>
-  <si>
-    <t>Peningkatan Produktivitas Untuk 14 Hari</t>
-  </si>
-  <si>
-    <t>Waktu</t>
-  </si>
-  <si>
-    <t>Yang dibutuhkan untuk 1 hari</t>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Peningkatan Produktivitas per tahun</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>Total Pegawai</t>
+  </si>
+  <si>
+    <t>Total Dosen</t>
+  </si>
+  <si>
+    <t>Jumlah Presensi (Hari)</t>
+  </si>
+  <si>
+    <t>Jumlah Presensi</t>
+  </si>
+  <si>
+    <t>Lama Nelpon (Menit)</t>
+  </si>
+  <si>
+    <t>Biaya Nelpon (Rp)</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>Biaya Nelpon Talkmania Rp 30/Menit (Operasional)</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Gaji PNS</t>
+  </si>
+  <si>
+    <t>Hari kerja</t>
+  </si>
+  <si>
+    <t>Jam kerja</t>
+  </si>
+  <si>
+    <t>Rupiah</t>
+  </si>
+  <si>
+    <t>DATA Referensi</t>
+  </si>
+  <si>
+    <t>Biaya / Tahun</t>
+  </si>
+  <si>
+    <t>Jumlah (Orang)</t>
+  </si>
+  <si>
+    <t>Lama Nelpon Pegawai</t>
+  </si>
+  <si>
+    <t>Menit</t>
+  </si>
+  <si>
+    <t>Waktu / Jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Anggota memerlukan waktu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,17 +216,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -205,14 +227,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,76 +250,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,292 +613,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>400000</v>
+      </c>
+      <c r="E4" s="6">
+        <f>C4*D4</f>
+        <v>400000</v>
+      </c>
+      <c r="G4" s="41">
+        <f>D22</f>
+        <v>2443</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30</v>
+      </c>
+      <c r="J4" s="40">
+        <f>G4*H4*I4</f>
+        <v>73290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>450000</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E8" si="0">C5*D5</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>300000</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="6">
+        <f>C7*D7</f>
+        <v>1500000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="28">
+        <f>(1*G4)</f>
+        <v>2443</v>
+      </c>
+      <c r="I7" s="19">
+        <f>H7/60</f>
+        <v>40.716666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>450000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>2250000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19">
+        <f>H7/C7</f>
+        <v>488.6</v>
+      </c>
+      <c r="I8" s="19">
+        <f>H8/60</f>
+        <v>8.1433333333333344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16">
+        <f>SUM(C4:C8)</f>
+        <v>13</v>
+      </c>
+      <c r="D9" s="19">
+        <f>SUM(D4:D8)</f>
+        <v>1900000</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUM(E4:E8)</f>
+        <v>4900000</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10">
+        <f>2000/60</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I10">
+        <f>33/8</f>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="7"/>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f>H11*I11</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D14" s="36">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="27">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="39">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="27">
+        <f>D15*12</f>
+        <v>264</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="37">
+        <v>2802300</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="27">
+        <v>797</v>
+      </c>
+      <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="F4" s="9">
-        <f>D4*E4</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="D20" s="28">
+        <f>B20*C20</f>
+        <v>1594</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="29">
+        <v>849</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28">
+        <f>B21*C21</f>
+        <v>849</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="23">
+        <f>SUM(D20:D21)</f>
+        <v>2443</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="F5:F8" si="0">D5*E5</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2800000</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>14000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4">
-        <f>SUM(D4:D8)</f>
-        <v>9</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" ref="E9:F9" si="1">SUM(E4:E8)</f>
-        <v>10800000</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>22000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12">
-        <f>(1*2200)/60</f>
-        <v>36.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="12">
-        <f>C13/D7</f>
-        <v>7.333333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="5">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="14">
-        <f>C17*C18</f>
-        <v>4400000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23">
-        <f>C14*14</f>
-        <v>102.66666666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="11">
-        <f>C19*14</f>
-        <v>61600000</v>
-      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19">
+        <f>($D$16*A27)*$I$8</f>
+        <v>2149.84</v>
+      </c>
+      <c r="C27" s="8">
+        <f>D16*$J$4</f>
+        <v>19348560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="D32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:E2"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPL/Hitungan Biaya.xlsx
+++ b/RPL/Hitungan Biaya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skripsi\RPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE3FA9-9B0E-4885-B0C0-D446D9589BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315BD8DA-5F1C-4116-96A6-ECF677B5B42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -57,94 +57,32 @@
     <t>Biaya Kepanitiaan</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Jam</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Peningkatan Produktivitas per tahun</t>
-  </si>
-  <si>
-    <t>Biaya</t>
-  </si>
-  <si>
-    <t>Total Pegawai</t>
-  </si>
-  <si>
-    <t>Total Dosen</t>
-  </si>
-  <si>
-    <t>Jumlah Presensi (Hari)</t>
-  </si>
-  <si>
-    <t>Jumlah Presensi</t>
-  </si>
-  <si>
-    <t>Lama Nelpon (Menit)</t>
-  </si>
-  <si>
-    <t>Biaya Nelpon (Rp)</t>
-  </si>
-  <si>
-    <t>Satuan</t>
-  </si>
-  <si>
-    <t>Tipe</t>
-  </si>
-  <si>
-    <t>Biaya Nelpon Talkmania Rp 30/Menit (Operasional)</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>Gaji PNS</t>
-  </si>
-  <si>
-    <t>Hari kerja</t>
-  </si>
-  <si>
-    <t>Jam kerja</t>
-  </si>
-  <si>
-    <t>Rupiah</t>
-  </si>
-  <si>
-    <t>DATA Referensi</t>
-  </si>
-  <si>
     <t>Biaya / Tahun</t>
   </si>
   <si>
-    <t>Jumlah (Orang)</t>
-  </si>
-  <si>
-    <t>Lama Nelpon Pegawai</t>
-  </si>
-  <si>
-    <t>Menit</t>
-  </si>
-  <si>
-    <t>Waktu / Jam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Anggota memerlukan waktu </t>
+    <t>BIAYA OPERASIONAL</t>
+  </si>
+  <si>
+    <t>Total Fakultas</t>
+  </si>
+  <si>
+    <t>Jumlah Mesin/Fakultas</t>
+  </si>
+  <si>
+    <t>Biaya Perawatan Per Tahun</t>
+  </si>
+  <si>
+    <t>Total Biaya Perawatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -178,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,21 +165,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,29 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -286,55 +201,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,18 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -634,32 +575,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -672,23 +611,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -707,20 +638,10 @@
         <f>C4*D4</f>
         <v>400000</v>
       </c>
-      <c r="G4" s="41">
-        <f>D22</f>
-        <v>2443</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>30</v>
-      </c>
-      <c r="J4" s="40">
-        <f>G4*H4*I4</f>
-        <v>73290</v>
-      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -739,6 +660,10 @@
         <f t="shared" ref="E5:E8" si="0">C5*D5</f>
         <v>450000</v>
       </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -757,13 +682,10 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -782,17 +704,10 @@
         <f>C7*D7</f>
         <v>1500000</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="28">
-        <f>(1*G4)</f>
-        <v>2443</v>
-      </c>
-      <c r="I7" s="19">
-        <f>H7/60</f>
-        <v>40.716666666666669</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -811,28 +726,21 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="19">
-        <f>H7/C7</f>
-        <v>488.6</v>
-      </c>
-      <c r="I8" s="19">
-        <f>H8/60</f>
-        <v>8.1433333333333344</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16">
+      <c r="B9" s="19"/>
+      <c r="C9" s="11">
         <f>SUM(C4:C8)</f>
         <v>13</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="12">
         <f>SUM(D4:D8)</f>
         <v>1900000</v>
       </c>
@@ -841,271 +749,252 @@
         <v>4900000</v>
       </c>
       <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="H10">
-        <f>2000/60</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="I10">
-        <f>33/8</f>
-        <v>4.125</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="7"/>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <f>H11*I11</f>
-        <v>32</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="A13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="39">
-        <v>1</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="D14" s="36">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="14">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42">
+        <v>500000</v>
+      </c>
+      <c r="D14" s="43">
+        <f>A14*B14*C14</f>
+        <v>36000000</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="39">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="27">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="39">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="27">
-        <f>D15*12</f>
-        <v>264</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="27">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="37">
-        <v>2802300</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>10</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="27">
-        <v>797</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28">
-        <f>B20*C20</f>
-        <v>1594</v>
-      </c>
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="29">
-        <v>849</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28">
-        <f>B21*C21</f>
-        <v>849</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="23">
-        <f>SUM(D20:D21)</f>
-        <v>2443</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="19">
-        <f>($D$16*A27)*$I$8</f>
-        <v>2149.84</v>
-      </c>
-      <c r="C27" s="8">
-        <f>D16*$J$4</f>
-        <v>19348560</v>
-      </c>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="A11:E12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="A11:D12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPL/Hitungan Biaya.xlsx
+++ b/RPL/Hitungan Biaya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skripsi\RPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F9CC8-0A9E-477C-A19F-9DF3FC2BBEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A9406-7593-46B1-8595-41DB59E0181B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,11 +231,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -522,7 +522,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,12 +552,12 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="8"/>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
@@ -566,10 +566,10 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="8"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
@@ -631,10 +631,10 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
@@ -643,8 +643,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="D9" s="18"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -666,7 +666,7 @@
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="13"/>
@@ -705,8 +705,8 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <f>30*24</f>
-        <v>720</v>
+        <f>30*10</f>
+        <v>300</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="20"/>
@@ -717,9 +717,9 @@
       <c r="A15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <f>B13*B14</f>
-        <v>1866.24</v>
+        <v>777.6</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="20"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="B17" s="33">
         <f>B15*B16</f>
-        <v>1933014.0671999999</v>
+        <v>805422.52800000005</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="B18" s="34">
         <f>B17*12</f>
-        <v>23196168.806400001</v>
+        <v>9665070.3360000011</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="3"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" s="11">
         <f>D5+B18</f>
-        <v>41196168.806400001</v>
+        <v>27665070.336000003</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
